--- a/test_data/test_host.xlsx
+++ b/test_data/test_host.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="test_test_connect" sheetId="6" r:id="rId1"/>
-    <sheet name="test_add_host" sheetId="1" r:id="rId2"/>
-    <sheet name="test_get_host" sheetId="2" r:id="rId3"/>
-    <sheet name="test_host_spec" sheetId="7" r:id="rId4"/>
-    <sheet name="test_edit_host" sheetId="8" r:id="rId5"/>
-    <sheet name="test_get_hostlist" sheetId="3" r:id="rId6"/>
-    <sheet name="test_delete_host" sheetId="4" r:id="rId7"/>
-    <sheet name="test_deploy_host" sheetId="5" r:id="rId8"/>
+    <sheet name="初始状态" sheetId="9" r:id="rId1"/>
+    <sheet name="test_test_connect" sheetId="6" r:id="rId2"/>
+    <sheet name="test_add_host" sheetId="1" r:id="rId3"/>
+    <sheet name="test_get_host" sheetId="2" r:id="rId4"/>
+    <sheet name="test_host_spec" sheetId="7" r:id="rId5"/>
+    <sheet name="test_edit_host" sheetId="8" r:id="rId6"/>
+    <sheet name="test_get_hostlist" sheetId="3" r:id="rId7"/>
+    <sheet name="test_delete_host" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>resourcePoolId</t>
   </si>
@@ -109,7 +109,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.19.115</t>
+    <t>B8:CA:3A:FB:90:96</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>114测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hostStatus</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>projectId</t>
+  </si>
+  <si>
+    <t>available</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpuMem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vdcId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enablePublic</t>
+  </si>
+  <si>
+    <t>115</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机列表中已经有115主机，没有114主机；115主机是可使用状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -117,56 +169,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>B8:CA:3A:FB:90:96</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>114测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>115</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hostStatus</t>
-  </si>
-  <si>
-    <t>maintenance</t>
-  </si>
-  <si>
-    <t>projectId</t>
-  </si>
-  <si>
-    <t>available</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpuMem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vdcId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enablePublic</t>
+    <t>newname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1151</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1151</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -523,10 +539,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="60.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -551,7 +590,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -561,20 +600,6 @@
       </c>
       <c r="D2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -583,16 +608,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -623,14 +649,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
+      <c r="A2" s="2">
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -639,7 +665,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -651,12 +677,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -671,7 +697,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -683,12 +709,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -698,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -716,13 +742,13 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -732,50 +758,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
       <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -785,12 +821,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -805,7 +841,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -814,11 +850,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -834,39 +870,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
